--- a/DataStructures/Wykresu.xlsx
+++ b/DataStructures/Wykresu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datastructures\DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FE3D8C-358F-44ED-917F-75287D75DAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A839443B-1DB6-44B5-B716-F9C821F3D0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8A658D02-D3FE-4905-9033-BE9E7A87EAF0}"/>
   </bookViews>
@@ -319,20 +319,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Arkusz1!$A$1:$A$5</c:f>
@@ -415,21 +401,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$O$1:$O$5</c:f>
@@ -488,20 +459,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$V$1:$V$5</c:f>
@@ -904,20 +861,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Arkusz1!$A$19:$A$23</c:f>
@@ -1000,20 +943,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$O$19:$O$23</c:f>
@@ -1072,20 +1001,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$V$18:$V$22</c:f>
@@ -1496,20 +1411,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$B$34:$B$38</c:f>
@@ -1568,20 +1469,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$O$34:$O$38</c:f>
@@ -1640,20 +1527,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$V$35:$V$39</c:f>
@@ -4002,7 +3875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE05090-B2D9-4033-8B8D-6F90613DA568}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
